--- a/CASUAL/LA ACCOUNTING/DE VILLA JAYVEE UMANDAP.xlsx
+++ b/CASUAL/LA ACCOUNTING/DE VILLA JAYVEE UMANDAP.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1106,7 +1106,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1149,7 +1149,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1213,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1273,7 +1273,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1339,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1402,7 +1402,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1500,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +1559,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1624,7 +1624,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1667,7 +1667,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1742,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,7 +1928,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,7 +1994,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2052,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,7 +2118,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2174,7 +2174,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2249,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2292,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2358,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2414,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2512,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,7 +2575,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3022,9 +3022,9 @@
   <dimension ref="A2:K147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="G10" sqref="G10"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3191,7 +3191,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>39.366</v>
+        <v>45.616</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3201,7 +3201,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>55.75</v>
+        <v>62</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4589,13 +4589,15 @@
       <c r="B73" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C73" s="13"/>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
@@ -4629,13 +4631,15 @@
         <v>45108</v>
       </c>
       <c r="B75" s="20"/>
-      <c r="C75" s="13"/>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
@@ -4647,13 +4651,15 @@
         <v>45139</v>
       </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -4665,13 +4671,15 @@
         <v>45170</v>
       </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4683,13 +4691,15 @@
         <v>45200</v>
       </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4700,7 +4710,9 @@
       <c r="A79" s="40">
         <v>45231</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
@@ -4712,7 +4724,9 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="48">
+        <v>45236</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
@@ -5895,7 +5909,7 @@
       <c r="D147" s="43"/>
       <c r="E147" s="49">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>39.366</v>
+        <v>45.616</v>
       </c>
       <c r="F147" s="15"/>
       <c r="G147" s="42" t="str">
@@ -5905,7 +5919,7 @@
       <c r="H147" s="43"/>
       <c r="I147" s="49">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>55.75</v>
+        <v>62</v>
       </c>
       <c r="J147" s="12"/>
       <c r="K147" s="15"/>
